--- a/biology/Botanique/Zone_des_parcs_de_Roihuvuori/Zone_des_parcs_de_Roihuvuori.xlsx
+++ b/biology/Botanique/Zone_des_parcs_de_Roihuvuori/Zone_des_parcs_de_Roihuvuori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone des parcs de Roihuvuori (finnois : Roihuvuoren aluepuisto) et un ensemble de parcs dans la section Roihuvuori du quartier de Herttoniemi à Helsinki en Finlande[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone des parcs de Roihuvuori (finnois : Roihuvuoren aluepuisto) et un ensemble de parcs dans la section Roihuvuori du quartier de Herttoniemi à Helsinki en Finlande,.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les parcs de Roihuvuori couvrent une superficie totale de 337 765 m2.
 La partie sud de la zone des parcs s'étend sur 183 734 m2:
 le pré du château d'eau de Roihuvuori sur 57 242 m2
 le parc aux cerisiers
-un parc à chiens fermé et un parcours d'agilité[4]
+un parc à chiens fermé et un parcours d'agilité
 La forêt de Roihuvuori, partie sud, 95 643 m2
-Château d'eau de Roihuvuori[5]
+Château d'eau de Roihuvuori
 Terrain de jeux Tuhkimo, 11 712 m2
 Jardin japonais de Roihuvuori, 9 238 m2
 Pistes de Vuorenpeikko, 10 599 m2
